--- a/Resultados/Escenario 1/costo_merma.xlsx
+++ b/Resultados/Escenario 1/costo_merma.xlsx
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>332.4094089013934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>150.6596193548352</v>
       </c>
     </row>
     <row r="55">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>118.2344516129054</v>
       </c>
     </row>
     <row r="56">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>702.5351207843755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>268.5239048387087</v>
       </c>
     </row>
     <row r="69">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>25.95575592218251</v>
+        <v>137.6996129032264</v>
       </c>
     </row>
     <row r="70">
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>956.3674285714648</v>
       </c>
     </row>
     <row r="73">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>103.559600878911</v>
+        <v>187.8716129032263</v>
       </c>
     </row>
     <row r="84">
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>309.0919874788501</v>
+        <v>3448.372571428577</v>
       </c>
     </row>
     <row r="87">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1951.730125663493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>191.2678096774176</v>
       </c>
     </row>
     <row r="97">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>44.13561290322636</v>
       </c>
     </row>
     <row r="98">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>4409.386521153031</v>
+        <v>5273.548571428578</v>
       </c>
     </row>
     <row r="101">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>668.7929779060426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>187.4925161290282</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>151.9079048387088</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>118.7156129032264</v>
       </c>
     </row>
     <row r="112">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>368.857374622139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>509.8100531877793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>39.85256809706397</v>
+        <v>617.0772043010883</v>
       </c>
     </row>
     <row r="164">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>1205.074840237561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>510.9666403404257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>0.8821290322545644</v>
       </c>
     </row>
     <row r="208">
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>11.03372096772097</v>
       </c>
     </row>
     <row r="209">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>8.048516129036152</v>
       </c>
     </row>
     <row r="210">
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>51.63246881429706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -10503,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>18.32752350759514</v>
+        <v>0.01844120227056328</v>
       </c>
     </row>
     <row r="531">
@@ -10522,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>2.558758594941339</v>
+        <v>10.24674721407124</v>
       </c>
     </row>
     <row r="532">
@@ -10769,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>13.91098547713018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>12.42420504636279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>3.94068589959032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -26444,7 +26444,7 @@
         <v>1</v>
       </c>
       <c r="E1369" t="n">
-        <v>0</v>
+        <v>0.01336558875232144</v>
       </c>
     </row>
     <row r="1370">
@@ -26463,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="E1370" t="n">
-        <v>0</v>
+        <v>0.01968386955191995</v>
       </c>
     </row>
     <row r="1371">
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
       <c r="E1371" t="n">
-        <v>0</v>
+        <v>0.005832256338037482</v>
       </c>
     </row>
     <row r="1372">
@@ -26976,7 +26976,7 @@
         <v>1</v>
       </c>
       <c r="E1397" t="n">
-        <v>0</v>
+        <v>9.166429259089958e-10</v>
       </c>
     </row>
     <row r="1398">
@@ -26995,7 +26995,7 @@
         <v>1</v>
       </c>
       <c r="E1398" t="n">
-        <v>0</v>
+        <v>3.847817424684762e-10</v>
       </c>
     </row>
     <row r="1399">
@@ -28040,7 +28040,7 @@
         <v>1</v>
       </c>
       <c r="E1453" t="n">
-        <v>0</v>
+        <v>2.556076247452032e-10</v>
       </c>
     </row>
     <row r="1454">
@@ -28572,7 +28572,7 @@
         <v>1</v>
       </c>
       <c r="E1481" t="n">
-        <v>0</v>
+        <v>1.328282653250628e-10</v>
       </c>
     </row>
     <row r="1482">
@@ -29902,7 +29902,7 @@
         <v>1</v>
       </c>
       <c r="E1551" t="n">
-        <v>0</v>
+        <v>8.021767522829278e-10</v>
       </c>
     </row>
     <row r="1552">
@@ -29921,7 +29921,7 @@
         <v>1</v>
       </c>
       <c r="E1552" t="n">
-        <v>0</v>
+        <v>2.258462535048074e-10</v>
       </c>
     </row>
     <row r="1553">
@@ -30168,7 +30168,7 @@
         <v>1</v>
       </c>
       <c r="E1565" t="n">
-        <v>0</v>
+        <v>0.04009677386303073</v>
       </c>
     </row>
     <row r="1566">
@@ -30187,7 +30187,7 @@
         <v>1</v>
       </c>
       <c r="E1566" t="n">
-        <v>0</v>
+        <v>0.01968387077288451</v>
       </c>
     </row>
     <row r="1567">
@@ -30206,7 +30206,7 @@
         <v>1</v>
       </c>
       <c r="E1567" t="n">
-        <v>0</v>
+        <v>0.005832255955023225</v>
       </c>
     </row>
     <row r="1568">
@@ -32562,7 +32562,7 @@
         <v>1</v>
       </c>
       <c r="E1691" t="n">
-        <v>0</v>
+        <v>0.04009677483267942</v>
       </c>
     </row>
     <row r="1692">
@@ -32581,7 +32581,7 @@
         <v>1</v>
       </c>
       <c r="E1692" t="n">
-        <v>0</v>
+        <v>0.01968387101573766</v>
       </c>
     </row>
     <row r="1693">
@@ -32600,7 +32600,7 @@
         <v>1</v>
       </c>
       <c r="E1693" t="n">
-        <v>0</v>
+        <v>0.005832256561443646</v>
       </c>
     </row>
     <row r="1694">

--- a/Resultados/Escenario 1/costo_merma.xlsx
+++ b/Resultados/Escenario 1/costo_merma.xlsx
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>150.6596193548352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>118.2344516129054</v>
+        <v>2.558505571829147</v>
       </c>
     </row>
     <row r="56">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>268.5239048387087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>137.6996129032264</v>
+        <v>108.7806263929591</v>
       </c>
     </row>
     <row r="70">
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>956.3674285714648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>187.8716129032263</v>
+        <v>158.9526263929567</v>
       </c>
     </row>
     <row r="84">
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>3448.372571428577</v>
+        <v>500.5781052631535</v>
       </c>
     </row>
     <row r="87">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>191.2678096774176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>44.13561290322636</v>
+        <v>15.21662639295667</v>
       </c>
     </row>
     <row r="98">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>5273.548571428578</v>
+        <v>4715.811157894738</v>
       </c>
     </row>
     <row r="101">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>187.4925161290282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>151.9079048387088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>118.7156129032264</v>
+        <v>89.79662639295667</v>
       </c>
     </row>
     <row r="112">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>617.0772043010883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0.8821290322545644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>11.03372096772097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>8.048516129036152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>0</v>
+        <v>0.06014516130726394</v>
       </c>
     </row>
     <row r="530">
@@ -10503,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>0.01844120227056328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -10522,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>10.24674721407124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -10750,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>8.166715360566342e-11</v>
       </c>
     </row>
     <row r="544">
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>2.406621605398647e-10</v>
       </c>
     </row>
     <row r="572">
@@ -11814,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0</v>
+        <v>3.438370175623846e-10</v>
       </c>
     </row>
     <row r="600">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>0</v>
+        <v>7.550077952764297e-11</v>
       </c>
     </row>
     <row r="628">
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>0</v>
+        <v>8.166715360566342e-11</v>
       </c>
     </row>
     <row r="642">
@@ -12878,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>0</v>
+        <v>1.695006812893473e-10</v>
       </c>
     </row>
     <row r="656">
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>0</v>
+        <v>2.511678348950107e-10</v>
       </c>
     </row>
     <row r="684">
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0</v>
+        <v>1.571679331333064e-10</v>
       </c>
     </row>
     <row r="726">
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>0</v>
+        <v>1.633343072113268e-10</v>
       </c>
     </row>
     <row r="754">
@@ -15272,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0</v>
+        <v>7.550077952764297e-11</v>
       </c>
     </row>
     <row r="782">
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0</v>
+        <v>8.166715360566342e-11</v>
       </c>
     </row>
     <row r="796">
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>0</v>
+        <v>1.695006812893473e-10</v>
       </c>
     </row>
     <row r="810">
@@ -17134,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>0</v>
+        <v>0.04009677359248001</v>
       </c>
     </row>
     <row r="880">
@@ -17153,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>0</v>
+        <v>0.01968387113338759</v>
       </c>
     </row>
     <row r="881">
@@ -17172,7 +17172,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>0</v>
+        <v>0.00583225809736593</v>
       </c>
     </row>
     <row r="882">
@@ -19547,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="E1006" t="n">
-        <v>0</v>
+        <v>7.779721768615257e-10</v>
       </c>
     </row>
     <row r="1007">
@@ -19566,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>0</v>
+        <v>2.305102746256373e-10</v>
       </c>
     </row>
     <row r="1008">
@@ -19794,7 +19794,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>0</v>
+        <v>0.04009677222119717</v>
       </c>
     </row>
     <row r="1020">
@@ -19813,7 +19813,7 @@
         <v>1</v>
       </c>
       <c r="E1020" t="n">
-        <v>0</v>
+        <v>0.01968387172193324</v>
       </c>
     </row>
     <row r="1021">
@@ -19832,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>0</v>
+        <v>0.00583225828798022</v>
       </c>
     </row>
     <row r="1022">
@@ -20326,7 +20326,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>0</v>
+        <v>0.04009678794915089</v>
       </c>
     </row>
     <row r="1048">
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="E1048" t="n">
-        <v>0</v>
+        <v>0.01968387822057398</v>
       </c>
     </row>
     <row r="1049">
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>0</v>
+        <v>0.005832260213503401</v>
       </c>
     </row>
     <row r="1050">
@@ -21143,7 +21143,7 @@
         <v>1</v>
       </c>
       <c r="E1090" t="n">
-        <v>0</v>
+        <v>6.296428513120521e-11</v>
       </c>
     </row>
     <row r="1091">
@@ -21162,7 +21162,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>0</v>
+        <v>1.865608448332006e-11</v>
       </c>
     </row>
     <row r="1092">
@@ -21656,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>0</v>
+        <v>0.08019354025789288</v>
       </c>
     </row>
     <row r="1118">
@@ -21675,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="E1118" t="n">
-        <v>0</v>
+        <v>0.03936773913202381</v>
       </c>
     </row>
     <row r="1119">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>0</v>
+        <v>0.01166451529837742</v>
       </c>
     </row>
     <row r="1120">
@@ -22473,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="E1160" t="n">
-        <v>0</v>
+        <v>1.7678433902223e-10</v>
       </c>
     </row>
     <row r="1161">
@@ -22492,7 +22492,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>0</v>
+        <v>5.238054489547555e-11</v>
       </c>
     </row>
     <row r="1162">
@@ -22720,7 +22720,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>0</v>
+        <v>0.04009677251629463</v>
       </c>
     </row>
     <row r="1174">
@@ -22739,7 +22739,7 @@
         <v>1</v>
       </c>
       <c r="E1174" t="n">
-        <v>0</v>
+        <v>0.01968387096774193</v>
       </c>
     </row>
     <row r="1175">
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>0</v>
+        <v>0.005832258064516128</v>
       </c>
     </row>
     <row r="1176">
@@ -23784,7 +23784,7 @@
         <v>1</v>
       </c>
       <c r="E1229" t="n">
-        <v>0</v>
+        <v>0.04009678016718681</v>
       </c>
     </row>
     <row r="1230">
@@ -23803,7 +23803,7 @@
         <v>1</v>
       </c>
       <c r="E1230" t="n">
-        <v>0</v>
+        <v>0.0196838749004188</v>
       </c>
     </row>
     <row r="1231">
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
       <c r="E1231" t="n">
-        <v>0</v>
+        <v>0.005832259229753716</v>
       </c>
     </row>
     <row r="1232">
@@ -24848,7 +24848,7 @@
         <v>1</v>
       </c>
       <c r="E1285" t="n">
-        <v>0</v>
+        <v>0.03207740215679223</v>
       </c>
     </row>
     <row r="1286">
@@ -24867,7 +24867,7 @@
         <v>1</v>
       </c>
       <c r="E1286" t="n">
-        <v>0</v>
+        <v>0.01574708883375054</v>
       </c>
     </row>
     <row r="1287">
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="E1287" t="n">
-        <v>0</v>
+        <v>0.004665804103274025</v>
       </c>
     </row>
     <row r="1288">
@@ -26444,7 +26444,7 @@
         <v>1</v>
       </c>
       <c r="E1369" t="n">
-        <v>0.01336558875232144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370">
@@ -26463,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="E1370" t="n">
-        <v>0.01968386955191995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371">
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
       <c r="E1371" t="n">
-        <v>0.005832256338037482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1372">
@@ -26976,7 +26976,7 @@
         <v>1</v>
       </c>
       <c r="E1397" t="n">
-        <v>9.166429259089958e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398">
@@ -26995,7 +26995,7 @@
         <v>1</v>
       </c>
       <c r="E1398" t="n">
-        <v>3.847817424684762e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -28040,7 +28040,7 @@
         <v>1</v>
       </c>
       <c r="E1453" t="n">
-        <v>2.556076247452032e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454">
@@ -28572,7 +28572,7 @@
         <v>1</v>
       </c>
       <c r="E1481" t="n">
-        <v>1.328282653250628e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482">
@@ -29902,7 +29902,7 @@
         <v>1</v>
       </c>
       <c r="E1551" t="n">
-        <v>8.021767522829278e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1552">
@@ -29921,7 +29921,7 @@
         <v>1</v>
       </c>
       <c r="E1552" t="n">
-        <v>2.258462535048074e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553">
@@ -30168,7 +30168,7 @@
         <v>1</v>
       </c>
       <c r="E1565" t="n">
-        <v>0.04009677386303073</v>
+        <v>5.346845499687446e-11</v>
       </c>
     </row>
     <row r="1566">
@@ -30187,7 +30187,7 @@
         <v>1</v>
       </c>
       <c r="E1566" t="n">
-        <v>0.01968387077288451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1567">
@@ -30206,7 +30206,7 @@
         <v>1</v>
       </c>
       <c r="E1567" t="n">
-        <v>0.005832255955023225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1568">
@@ -30966,7 +30966,7 @@
         <v>1</v>
       </c>
       <c r="E1607" t="n">
-        <v>0</v>
+        <v>0.00801935485141639</v>
       </c>
     </row>
     <row r="1608">
@@ -30985,7 +30985,7 @@
         <v>1</v>
       </c>
       <c r="E1608" t="n">
-        <v>0</v>
+        <v>0.003936774178071198</v>
       </c>
     </row>
     <row r="1609">
@@ -31004,7 +31004,7 @@
         <v>1</v>
       </c>
       <c r="E1609" t="n">
-        <v>0</v>
+        <v>0.001166451487182395</v>
       </c>
     </row>
     <row r="1610">
@@ -31498,7 +31498,7 @@
         <v>1</v>
       </c>
       <c r="E1635" t="n">
-        <v>0</v>
+        <v>0.03207741936659858</v>
       </c>
     </row>
     <row r="1636">
@@ -31517,7 +31517,7 @@
         <v>1</v>
       </c>
       <c r="E1636" t="n">
-        <v>0</v>
+        <v>0.01574709676126565</v>
       </c>
     </row>
     <row r="1637">
@@ -31536,7 +31536,7 @@
         <v>1</v>
       </c>
       <c r="E1637" t="n">
-        <v>0</v>
+        <v>0.004665806431886871</v>
       </c>
     </row>
     <row r="1638">
@@ -32562,7 +32562,7 @@
         <v>1</v>
       </c>
       <c r="E1691" t="n">
-        <v>0.04009677483267942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1692">
@@ -32581,7 +32581,7 @@
         <v>1</v>
       </c>
       <c r="E1692" t="n">
-        <v>0.01968387101573766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1693">
@@ -32600,7 +32600,7 @@
         <v>1</v>
       </c>
       <c r="E1693" t="n">
-        <v>0.005832256561443646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1694">
@@ -32828,7 +32828,7 @@
         <v>1</v>
       </c>
       <c r="E1705" t="n">
-        <v>0</v>
+        <v>0.02520368665780342</v>
       </c>
     </row>
     <row r="1706">
@@ -32847,7 +32847,7 @@
         <v>1</v>
       </c>
       <c r="E1706" t="n">
-        <v>0</v>
+        <v>0.01237271886765191</v>
       </c>
     </row>
     <row r="1707">
@@ -32866,7 +32866,7 @@
         <v>1</v>
       </c>
       <c r="E1707" t="n">
-        <v>0</v>
+        <v>0.003665990751026423</v>
       </c>
     </row>
     <row r="1708">
@@ -35754,7 +35754,7 @@
         <v>1</v>
       </c>
       <c r="E1859" t="n">
-        <v>0</v>
+        <v>0.1546589861804368</v>
       </c>
     </row>
     <row r="1860">
@@ -35773,7 +35773,7 @@
         <v>1</v>
       </c>
       <c r="E1860" t="n">
-        <v>0</v>
+        <v>0.0759235022707706</v>
       </c>
     </row>
     <row r="1861">
@@ -35792,7 +35792,7 @@
         <v>1</v>
       </c>
       <c r="E1861" t="n">
-        <v>0</v>
+        <v>0.02249585251919154</v>
       </c>
     </row>
     <row r="1862">
@@ -36552,7 +36552,7 @@
         <v>1</v>
       </c>
       <c r="E1901" t="n">
-        <v>0</v>
+        <v>0.04582488479710518</v>
       </c>
     </row>
     <row r="1902">
@@ -36571,7 +36571,7 @@
         <v>1</v>
       </c>
       <c r="E1902" t="n">
-        <v>0</v>
+        <v>0.0224958525315137</v>
       </c>
     </row>
     <row r="1903">
@@ -36590,7 +36590,7 @@
         <v>1</v>
       </c>
       <c r="E1903" t="n">
-        <v>0</v>
+        <v>0.006665437783826435</v>
       </c>
     </row>
     <row r="1904">

--- a/Resultados/Escenario 1/costo_merma.xlsx
+++ b/Resultados/Escenario 1/costo_merma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2101"/>
+  <dimension ref="A1:E1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>2.562747214065282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>108.7816868035163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>158.9536868035163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>350.0175000000049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>15.21768680351632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>4694.302500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.04374193542340071</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.009543694962856534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>89.79768680351631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -10237,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>2.295167789156949e-11</v>
       </c>
     </row>
     <row r="517">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0</v>
+        <v>0.01516387399695339</v>
       </c>
     </row>
     <row r="518">
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>0.04009677419354839</v>
       </c>
     </row>
     <row r="558">
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>0.01968387096774193</v>
       </c>
     </row>
     <row r="559">
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>0.002332904528147839</v>
       </c>
     </row>
     <row r="560">
@@ -11814,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0</v>
+        <v>0.04009677419354839</v>
       </c>
     </row>
     <row r="600">
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0</v>
+        <v>0.01968387096774193</v>
       </c>
     </row>
     <row r="601">
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>0.00233290452074819</v>
       </c>
     </row>
     <row r="602">
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>5.987385435446414e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -13429,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>2.362089327334617e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -13448,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>6.933008535270349e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0</v>
+        <v>0.04009677419354839</v>
       </c>
     </row>
     <row r="726">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0</v>
+        <v>0.01968387096774193</v>
       </c>
     </row>
     <row r="727">
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0</v>
+        <v>0.08019353535439222</v>
       </c>
     </row>
     <row r="796">
@@ -15557,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0</v>
+        <v>0.03936773553761072</v>
       </c>
     </row>
     <row r="797">
@@ -15576,7 +15576,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>0</v>
+        <v>0.001166455775097855</v>
       </c>
     </row>
     <row r="798">
@@ -17134,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>0</v>
+        <v>4.205467121209949e-10</v>
       </c>
     </row>
     <row r="880">
@@ -17153,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>0</v>
+        <v>2.064502041321248e-10</v>
       </c>
     </row>
     <row r="881">
@@ -17400,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>0</v>
+        <v>0.08019352752282727</v>
       </c>
     </row>
     <row r="894">
@@ -17419,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>0</v>
+        <v>0.0393677316930243</v>
       </c>
     </row>
     <row r="895">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>0</v>
+        <v>0.008165159606698814</v>
       </c>
     </row>
     <row r="896">
@@ -18996,7 +18996,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>0</v>
+        <v>0.0801935445459072</v>
       </c>
     </row>
     <row r="978">
@@ -19015,7 +19015,7 @@
         <v>1</v>
       </c>
       <c r="E978" t="n">
-        <v>0</v>
+        <v>0.03936774005344154</v>
       </c>
     </row>
     <row r="979">
@@ -19034,7 +19034,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>0</v>
+        <v>0.01166451557139009</v>
       </c>
     </row>
     <row r="980">
@@ -20326,7 +20326,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>8.301868848909474e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="E1048" t="n">
-        <v>3.916639516393311e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>1.151441767320625e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -20592,7 +20592,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>0</v>
+        <v>0.04009677324822732</v>
       </c>
     </row>
     <row r="1062">
@@ -20611,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="E1062" t="n">
-        <v>0</v>
+        <v>0.01968387050730779</v>
       </c>
     </row>
     <row r="1063">
@@ -20630,7 +20630,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>0</v>
+        <v>0.005832257928091195</v>
       </c>
     </row>
     <row r="1064">
@@ -21124,7 +21124,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>0</v>
+        <v>0.1603870893390038</v>
       </c>
     </row>
     <row r="1090">
@@ -21143,7 +21143,7 @@
         <v>1</v>
       </c>
       <c r="E1090" t="n">
-        <v>0</v>
+        <v>0.07873548022217634</v>
       </c>
     </row>
     <row r="1091">
@@ -21162,7 +21162,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>0</v>
+        <v>0.02332903117694114</v>
       </c>
     </row>
     <row r="1092">
@@ -21656,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>0</v>
+        <v>1.808021998088439e-09</v>
       </c>
     </row>
     <row r="1118">
@@ -21675,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="E1118" t="n">
-        <v>0</v>
+        <v>8.887852870623722e-10</v>
       </c>
     </row>
     <row r="1119">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>0</v>
+        <v>2.633437887592213e-10</v>
       </c>
     </row>
     <row r="1120">
@@ -23784,7 +23784,7 @@
         <v>1</v>
       </c>
       <c r="E1229" t="n">
-        <v>0</v>
+        <v>0.08019354576960358</v>
       </c>
     </row>
     <row r="1230">
@@ -23803,7 +23803,7 @@
         <v>1</v>
       </c>
       <c r="E1230" t="n">
-        <v>0</v>
+        <v>0.03936774065537607</v>
       </c>
     </row>
     <row r="1231">
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
       <c r="E1231" t="n">
-        <v>0</v>
+        <v>0.01166451574974106</v>
       </c>
     </row>
     <row r="1232">
@@ -25133,7 +25133,7 @@
         <v>1</v>
       </c>
       <c r="E1300" t="n">
-        <v>0</v>
+        <v>6.524438905808338e-13</v>
       </c>
     </row>
     <row r="1301">
@@ -25152,7 +25152,7 @@
         <v>1</v>
       </c>
       <c r="E1301" t="n">
-        <v>0</v>
+        <v>2.477158436708926e-12</v>
       </c>
     </row>
     <row r="1302">
@@ -32372,7986 +32372,6 @@
         <v>1</v>
       </c>
       <c r="E1681" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" s="1" t="n">
-        <v>1680</v>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1682" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1682" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1682" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" s="1" t="n">
-        <v>1681</v>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1683" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1683" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1683" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" s="1" t="n">
-        <v>1682</v>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1684" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1684" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1684" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" s="1" t="n">
-        <v>1683</v>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1685" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1685" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1685" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" s="1" t="n">
-        <v>1684</v>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1686" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1686" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1686" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" s="1" t="n">
-        <v>1685</v>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1687" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1687" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1687" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" s="1" t="n">
-        <v>1686</v>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1688" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1688" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1688" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" s="1" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1689" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1689" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1689" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" s="1" t="n">
-        <v>1688</v>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1690" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1690" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1690" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" s="1" t="n">
-        <v>1689</v>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1691" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1691" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1691" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" s="1" t="n">
-        <v>1690</v>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1692" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1692" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1692" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" s="1" t="n">
-        <v>1691</v>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1693" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1693" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1693" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" s="1" t="n">
-        <v>1692</v>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1694" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1694" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1694" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" s="1" t="n">
-        <v>1693</v>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1695" t="n">
-        <v>121</v>
-      </c>
-      <c r="D1695" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1695" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" s="1" t="n">
-        <v>1694</v>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1696" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1696" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1696" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" s="1" t="n">
-        <v>1695</v>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1697" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1697" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1697" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" s="1" t="n">
-        <v>1696</v>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1698" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1698" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1698" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" s="1" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1699" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1699" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1699" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" s="1" t="n">
-        <v>1698</v>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1700" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1700" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1700" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" s="1" t="n">
-        <v>1699</v>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1701" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1701" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1701" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" s="1" t="n">
-        <v>1700</v>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1702" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1702" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1702" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" s="1" t="n">
-        <v>1701</v>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1703" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1703" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1703" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" s="1" t="n">
-        <v>1702</v>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1704" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1704" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1704" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" s="1" t="n">
-        <v>1703</v>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1705" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1705" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1705" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" s="1" t="n">
-        <v>1704</v>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1706" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1706" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1706" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" s="1" t="n">
-        <v>1705</v>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1707" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1707" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1707" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" s="1" t="n">
-        <v>1706</v>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1708" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1708" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1708" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" s="1" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1709" t="n">
-        <v>122</v>
-      </c>
-      <c r="D1709" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1709" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" s="1" t="n">
-        <v>1708</v>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1710" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1710" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1710" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" s="1" t="n">
-        <v>1709</v>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1711" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1711" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1711" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" s="1" t="n">
-        <v>1710</v>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1712" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1712" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1712" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" s="1" t="n">
-        <v>1711</v>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1713" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1713" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1713" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" s="1" t="n">
-        <v>1712</v>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1714" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1714" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1714" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" s="1" t="n">
-        <v>1713</v>
-      </c>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1715" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1715" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1715" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" s="1" t="n">
-        <v>1714</v>
-      </c>
-      <c r="B1716" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1716" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1716" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1716" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" s="1" t="n">
-        <v>1715</v>
-      </c>
-      <c r="B1717" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1717" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1717" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1717" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" s="1" t="n">
-        <v>1716</v>
-      </c>
-      <c r="B1718" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1718" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1718" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1718" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" s="1" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B1719" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1719" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1719" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1719" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" s="1" t="n">
-        <v>1718</v>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1720" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1720" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1720" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" s="1" t="n">
-        <v>1719</v>
-      </c>
-      <c r="B1721" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1721" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1721" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1721" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" s="1" t="n">
-        <v>1720</v>
-      </c>
-      <c r="B1722" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1722" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1722" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1722" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" s="1" t="n">
-        <v>1721</v>
-      </c>
-      <c r="B1723" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1723" t="n">
-        <v>123</v>
-      </c>
-      <c r="D1723" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1723" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" s="1" t="n">
-        <v>1722</v>
-      </c>
-      <c r="B1724" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1724" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1724" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1724" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" s="1" t="n">
-        <v>1723</v>
-      </c>
-      <c r="B1725" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1725" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1725" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1725" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" s="1" t="n">
-        <v>1724</v>
-      </c>
-      <c r="B1726" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1726" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1726" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1726" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" s="1" t="n">
-        <v>1725</v>
-      </c>
-      <c r="B1727" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1727" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1727" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1727" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" s="1" t="n">
-        <v>1726</v>
-      </c>
-      <c r="B1728" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1728" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1728" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1728" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" s="1" t="n">
-        <v>1727</v>
-      </c>
-      <c r="B1729" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1729" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1729" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1729" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" s="1" t="n">
-        <v>1728</v>
-      </c>
-      <c r="B1730" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1730" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1730" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1730" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" s="1" t="n">
-        <v>1729</v>
-      </c>
-      <c r="B1731" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1731" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1731" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1731" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1732">
-      <c r="A1732" s="1" t="n">
-        <v>1730</v>
-      </c>
-      <c r="B1732" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1732" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1732" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1732" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1733">
-      <c r="A1733" s="1" t="n">
-        <v>1731</v>
-      </c>
-      <c r="B1733" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1733" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1733" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1733" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1734">
-      <c r="A1734" s="1" t="n">
-        <v>1732</v>
-      </c>
-      <c r="B1734" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1734" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1734" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1734" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1735">
-      <c r="A1735" s="1" t="n">
-        <v>1733</v>
-      </c>
-      <c r="B1735" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1735" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1735" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1735" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1736">
-      <c r="A1736" s="1" t="n">
-        <v>1734</v>
-      </c>
-      <c r="B1736" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1736" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1736" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1736" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1737">
-      <c r="A1737" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="B1737" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1737" t="n">
-        <v>124</v>
-      </c>
-      <c r="D1737" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1737" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" s="1" t="n">
-        <v>1736</v>
-      </c>
-      <c r="B1738" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1738" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1738" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1738" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" s="1" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B1739" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1739" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1739" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1739" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" s="1" t="n">
-        <v>1738</v>
-      </c>
-      <c r="B1740" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1740" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1740" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1740" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" s="1" t="n">
-        <v>1739</v>
-      </c>
-      <c r="B1741" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1741" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1741" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1741" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" s="1" t="n">
-        <v>1740</v>
-      </c>
-      <c r="B1742" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1742" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1742" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1742" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" s="1" t="n">
-        <v>1741</v>
-      </c>
-      <c r="B1743" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1743" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1743" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1743" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1744">
-      <c r="A1744" s="1" t="n">
-        <v>1742</v>
-      </c>
-      <c r="B1744" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1744" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1744" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1744" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1745">
-      <c r="A1745" s="1" t="n">
-        <v>1743</v>
-      </c>
-      <c r="B1745" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1745" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1745" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1745" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1746">
-      <c r="A1746" s="1" t="n">
-        <v>1744</v>
-      </c>
-      <c r="B1746" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1746" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1746" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1746" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1747">
-      <c r="A1747" s="1" t="n">
-        <v>1745</v>
-      </c>
-      <c r="B1747" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1747" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1747" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1747" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1748">
-      <c r="A1748" s="1" t="n">
-        <v>1746</v>
-      </c>
-      <c r="B1748" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1748" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1748" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1748" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1749">
-      <c r="A1749" s="1" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B1749" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1749" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1749" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1749" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1750">
-      <c r="A1750" s="1" t="n">
-        <v>1748</v>
-      </c>
-      <c r="B1750" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1750" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1750" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1750" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1751">
-      <c r="A1751" s="1" t="n">
-        <v>1749</v>
-      </c>
-      <c r="B1751" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1751" t="n">
-        <v>125</v>
-      </c>
-      <c r="D1751" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1751" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1752">
-      <c r="A1752" s="1" t="n">
-        <v>1750</v>
-      </c>
-      <c r="B1752" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1752" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1752" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1752" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1753">
-      <c r="A1753" s="1" t="n">
-        <v>1751</v>
-      </c>
-      <c r="B1753" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1753" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1753" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1753" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1754">
-      <c r="A1754" s="1" t="n">
-        <v>1752</v>
-      </c>
-      <c r="B1754" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1754" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1754" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1754" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1755">
-      <c r="A1755" s="1" t="n">
-        <v>1753</v>
-      </c>
-      <c r="B1755" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1755" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1755" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1755" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1756">
-      <c r="A1756" s="1" t="n">
-        <v>1754</v>
-      </c>
-      <c r="B1756" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1756" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1756" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1756" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1757">
-      <c r="A1757" s="1" t="n">
-        <v>1755</v>
-      </c>
-      <c r="B1757" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1757" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1757" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1757" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1758">
-      <c r="A1758" s="1" t="n">
-        <v>1756</v>
-      </c>
-      <c r="B1758" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1758" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1758" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1758" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1759">
-      <c r="A1759" s="1" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B1759" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1759" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1759" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1759" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1760">
-      <c r="A1760" s="1" t="n">
-        <v>1758</v>
-      </c>
-      <c r="B1760" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1760" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1760" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1760" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1761">
-      <c r="A1761" s="1" t="n">
-        <v>1759</v>
-      </c>
-      <c r="B1761" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1761" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1761" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1761" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1762">
-      <c r="A1762" s="1" t="n">
-        <v>1760</v>
-      </c>
-      <c r="B1762" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1762" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1762" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1762" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1763">
-      <c r="A1763" s="1" t="n">
-        <v>1761</v>
-      </c>
-      <c r="B1763" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1763" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1763" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1763" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1764">
-      <c r="A1764" s="1" t="n">
-        <v>1762</v>
-      </c>
-      <c r="B1764" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1764" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1764" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1764" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1765">
-      <c r="A1765" s="1" t="n">
-        <v>1763</v>
-      </c>
-      <c r="B1765" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1765" t="n">
-        <v>126</v>
-      </c>
-      <c r="D1765" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1765" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1766">
-      <c r="A1766" s="1" t="n">
-        <v>1764</v>
-      </c>
-      <c r="B1766" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1766" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1766" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1766" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1767">
-      <c r="A1767" s="1" t="n">
-        <v>1765</v>
-      </c>
-      <c r="B1767" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1767" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1767" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1767" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1768">
-      <c r="A1768" s="1" t="n">
-        <v>1766</v>
-      </c>
-      <c r="B1768" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1768" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1768" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1768" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1769">
-      <c r="A1769" s="1" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B1769" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1769" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1769" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1769" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1770">
-      <c r="A1770" s="1" t="n">
-        <v>1768</v>
-      </c>
-      <c r="B1770" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1770" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1770" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1770" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1771">
-      <c r="A1771" s="1" t="n">
-        <v>1769</v>
-      </c>
-      <c r="B1771" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1771" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1771" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1771" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1772">
-      <c r="A1772" s="1" t="n">
-        <v>1770</v>
-      </c>
-      <c r="B1772" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1772" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1772" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1772" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1773">
-      <c r="A1773" s="1" t="n">
-        <v>1771</v>
-      </c>
-      <c r="B1773" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1773" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1773" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1773" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1774">
-      <c r="A1774" s="1" t="n">
-        <v>1772</v>
-      </c>
-      <c r="B1774" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1774" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1774" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1774" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1775">
-      <c r="A1775" s="1" t="n">
-        <v>1773</v>
-      </c>
-      <c r="B1775" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1775" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1775" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1775" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1776">
-      <c r="A1776" s="1" t="n">
-        <v>1774</v>
-      </c>
-      <c r="B1776" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1776" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1776" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1776" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1777">
-      <c r="A1777" s="1" t="n">
-        <v>1775</v>
-      </c>
-      <c r="B1777" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1777" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1777" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1777" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1778">
-      <c r="A1778" s="1" t="n">
-        <v>1776</v>
-      </c>
-      <c r="B1778" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1778" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1778" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1778" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1779">
-      <c r="A1779" s="1" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B1779" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1779" t="n">
-        <v>127</v>
-      </c>
-      <c r="D1779" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1779" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1780">
-      <c r="A1780" s="1" t="n">
-        <v>1778</v>
-      </c>
-      <c r="B1780" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1780" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1780" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1780" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1781">
-      <c r="A1781" s="1" t="n">
-        <v>1779</v>
-      </c>
-      <c r="B1781" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1781" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1781" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1781" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1782">
-      <c r="A1782" s="1" t="n">
-        <v>1780</v>
-      </c>
-      <c r="B1782" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1782" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1782" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1782" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1783">
-      <c r="A1783" s="1" t="n">
-        <v>1781</v>
-      </c>
-      <c r="B1783" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1783" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1783" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1783" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1784">
-      <c r="A1784" s="1" t="n">
-        <v>1782</v>
-      </c>
-      <c r="B1784" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1784" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1784" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1784" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1785">
-      <c r="A1785" s="1" t="n">
-        <v>1783</v>
-      </c>
-      <c r="B1785" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1785" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1785" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1785" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1786">
-      <c r="A1786" s="1" t="n">
-        <v>1784</v>
-      </c>
-      <c r="B1786" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1786" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1786" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1786" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1787">
-      <c r="A1787" s="1" t="n">
-        <v>1785</v>
-      </c>
-      <c r="B1787" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1787" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1787" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1787" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1788">
-      <c r="A1788" s="1" t="n">
-        <v>1786</v>
-      </c>
-      <c r="B1788" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1788" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1788" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1788" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1789">
-      <c r="A1789" s="1" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B1789" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1789" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1789" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1789" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1790">
-      <c r="A1790" s="1" t="n">
-        <v>1788</v>
-      </c>
-      <c r="B1790" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1790" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1790" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1790" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1791">
-      <c r="A1791" s="1" t="n">
-        <v>1789</v>
-      </c>
-      <c r="B1791" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1791" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1791" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1791" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1792">
-      <c r="A1792" s="1" t="n">
-        <v>1790</v>
-      </c>
-      <c r="B1792" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1792" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1792" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1792" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1793">
-      <c r="A1793" s="1" t="n">
-        <v>1791</v>
-      </c>
-      <c r="B1793" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1793" t="n">
-        <v>128</v>
-      </c>
-      <c r="D1793" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1793" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1794">
-      <c r="A1794" s="1" t="n">
-        <v>1792</v>
-      </c>
-      <c r="B1794" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1794" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1794" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1794" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1795">
-      <c r="A1795" s="1" t="n">
-        <v>1793</v>
-      </c>
-      <c r="B1795" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1795" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1795" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1795" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1796">
-      <c r="A1796" s="1" t="n">
-        <v>1794</v>
-      </c>
-      <c r="B1796" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1796" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1796" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1796" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1797">
-      <c r="A1797" s="1" t="n">
-        <v>1795</v>
-      </c>
-      <c r="B1797" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1797" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1797" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1797" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1798">
-      <c r="A1798" s="1" t="n">
-        <v>1796</v>
-      </c>
-      <c r="B1798" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1798" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1798" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1798" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1799">
-      <c r="A1799" s="1" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B1799" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1799" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1799" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1799" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1800">
-      <c r="A1800" s="1" t="n">
-        <v>1798</v>
-      </c>
-      <c r="B1800" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1800" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1800" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1800" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1801">
-      <c r="A1801" s="1" t="n">
-        <v>1799</v>
-      </c>
-      <c r="B1801" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1801" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1801" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1801" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1802">
-      <c r="A1802" s="1" t="n">
-        <v>1800</v>
-      </c>
-      <c r="B1802" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1802" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1802" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1802" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1803">
-      <c r="A1803" s="1" t="n">
-        <v>1801</v>
-      </c>
-      <c r="B1803" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1803" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1803" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1803" t="n">
-        <v>2.104804752016335e-09</v>
-      </c>
-    </row>
-    <row r="1804">
-      <c r="A1804" s="1" t="n">
-        <v>1802</v>
-      </c>
-      <c r="B1804" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1804" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1804" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1804" t="n">
-        <v>1.033267787353473e-09</v>
-      </c>
-    </row>
-    <row r="1805">
-      <c r="A1805" s="1" t="n">
-        <v>1803</v>
-      </c>
-      <c r="B1805" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1805" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1805" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1805" t="n">
-        <v>3.061534184751032e-10</v>
-      </c>
-    </row>
-    <row r="1806">
-      <c r="A1806" s="1" t="n">
-        <v>1804</v>
-      </c>
-      <c r="B1806" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1806" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1806" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1806" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1807">
-      <c r="A1807" s="1" t="n">
-        <v>1805</v>
-      </c>
-      <c r="B1807" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1807" t="n">
-        <v>129</v>
-      </c>
-      <c r="D1807" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1807" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1808">
-      <c r="A1808" s="1" t="n">
-        <v>1806</v>
-      </c>
-      <c r="B1808" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1808" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1808" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1808" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1809">
-      <c r="A1809" s="1" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B1809" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1809" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1809" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1809" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1810">
-      <c r="A1810" s="1" t="n">
-        <v>1808</v>
-      </c>
-      <c r="B1810" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1810" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1810" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1810" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1811">
-      <c r="A1811" s="1" t="n">
-        <v>1809</v>
-      </c>
-      <c r="B1811" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1811" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1811" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1811" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1812">
-      <c r="A1812" s="1" t="n">
-        <v>1810</v>
-      </c>
-      <c r="B1812" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1812" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1812" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1812" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1813">
-      <c r="A1813" s="1" t="n">
-        <v>1811</v>
-      </c>
-      <c r="B1813" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1813" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1813" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1813" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1814">
-      <c r="A1814" s="1" t="n">
-        <v>1812</v>
-      </c>
-      <c r="B1814" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1814" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1814" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1814" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1815">
-      <c r="A1815" s="1" t="n">
-        <v>1813</v>
-      </c>
-      <c r="B1815" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1815" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1815" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1815" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1816">
-      <c r="A1816" s="1" t="n">
-        <v>1814</v>
-      </c>
-      <c r="B1816" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1816" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1816" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1816" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1817">
-      <c r="A1817" s="1" t="n">
-        <v>1815</v>
-      </c>
-      <c r="B1817" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1817" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1817" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1817" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1818">
-      <c r="A1818" s="1" t="n">
-        <v>1816</v>
-      </c>
-      <c r="B1818" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1818" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1818" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1818" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1819">
-      <c r="A1819" s="1" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B1819" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1819" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1819" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1819" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1820">
-      <c r="A1820" s="1" t="n">
-        <v>1818</v>
-      </c>
-      <c r="B1820" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1820" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1820" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1820" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1821">
-      <c r="A1821" s="1" t="n">
-        <v>1819</v>
-      </c>
-      <c r="B1821" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1821" t="n">
-        <v>130</v>
-      </c>
-      <c r="D1821" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1821" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1822">
-      <c r="A1822" s="1" t="n">
-        <v>1820</v>
-      </c>
-      <c r="B1822" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1822" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1822" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1822" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1823">
-      <c r="A1823" s="1" t="n">
-        <v>1821</v>
-      </c>
-      <c r="B1823" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1823" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1823" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1823" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1824">
-      <c r="A1824" s="1" t="n">
-        <v>1822</v>
-      </c>
-      <c r="B1824" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1824" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1824" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1824" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1825">
-      <c r="A1825" s="1" t="n">
-        <v>1823</v>
-      </c>
-      <c r="B1825" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1825" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1825" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1825" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1826">
-      <c r="A1826" s="1" t="n">
-        <v>1824</v>
-      </c>
-      <c r="B1826" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1826" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1826" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1826" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1827">
-      <c r="A1827" s="1" t="n">
-        <v>1825</v>
-      </c>
-      <c r="B1827" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1827" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1827" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1827" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1828">
-      <c r="A1828" s="1" t="n">
-        <v>1826</v>
-      </c>
-      <c r="B1828" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1828" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1828" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1828" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1829">
-      <c r="A1829" s="1" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B1829" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1829" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1829" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1829" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1830">
-      <c r="A1830" s="1" t="n">
-        <v>1828</v>
-      </c>
-      <c r="B1830" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1830" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1830" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1830" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1831">
-      <c r="A1831" s="1" t="n">
-        <v>1829</v>
-      </c>
-      <c r="B1831" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1831" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1831" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1831" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1832">
-      <c r="A1832" s="1" t="n">
-        <v>1830</v>
-      </c>
-      <c r="B1832" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1832" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1832" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1832" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1833">
-      <c r="A1833" s="1" t="n">
-        <v>1831</v>
-      </c>
-      <c r="B1833" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1833" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1833" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1833" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1834">
-      <c r="A1834" s="1" t="n">
-        <v>1832</v>
-      </c>
-      <c r="B1834" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1834" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1834" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1834" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1835">
-      <c r="A1835" s="1" t="n">
-        <v>1833</v>
-      </c>
-      <c r="B1835" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1835" t="n">
-        <v>131</v>
-      </c>
-      <c r="D1835" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1835" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="A1836" s="1" t="n">
-        <v>1834</v>
-      </c>
-      <c r="B1836" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1836" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1836" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1836" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="A1837" s="1" t="n">
-        <v>1835</v>
-      </c>
-      <c r="B1837" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1837" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1837" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1837" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="A1838" s="1" t="n">
-        <v>1836</v>
-      </c>
-      <c r="B1838" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1838" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1838" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1838" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" s="1" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B1839" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1839" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1839" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1839" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1840">
-      <c r="A1840" s="1" t="n">
-        <v>1838</v>
-      </c>
-      <c r="B1840" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1840" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1840" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1840" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1841">
-      <c r="A1841" s="1" t="n">
-        <v>1839</v>
-      </c>
-      <c r="B1841" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1841" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1841" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1841" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1842">
-      <c r="A1842" s="1" t="n">
-        <v>1840</v>
-      </c>
-      <c r="B1842" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1842" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1842" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1842" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1843">
-      <c r="A1843" s="1" t="n">
-        <v>1841</v>
-      </c>
-      <c r="B1843" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1843" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1843" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1843" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1844">
-      <c r="A1844" s="1" t="n">
-        <v>1842</v>
-      </c>
-      <c r="B1844" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1844" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1844" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1844" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1845">
-      <c r="A1845" s="1" t="n">
-        <v>1843</v>
-      </c>
-      <c r="B1845" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1845" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1845" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1845" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1846">
-      <c r="A1846" s="1" t="n">
-        <v>1844</v>
-      </c>
-      <c r="B1846" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1846" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1846" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1846" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1847">
-      <c r="A1847" s="1" t="n">
-        <v>1845</v>
-      </c>
-      <c r="B1847" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1847" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1847" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1847" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1848">
-      <c r="A1848" s="1" t="n">
-        <v>1846</v>
-      </c>
-      <c r="B1848" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1848" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1848" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1848" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" s="1" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B1849" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1849" t="n">
-        <v>132</v>
-      </c>
-      <c r="D1849" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1849" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" s="1" t="n">
-        <v>1848</v>
-      </c>
-      <c r="B1850" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1850" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1850" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1850" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" s="1" t="n">
-        <v>1849</v>
-      </c>
-      <c r="B1851" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1851" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1851" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1851" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" s="1" t="n">
-        <v>1850</v>
-      </c>
-      <c r="B1852" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1852" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1852" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1852" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1853">
-      <c r="A1853" s="1" t="n">
-        <v>1851</v>
-      </c>
-      <c r="B1853" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1853" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1853" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1853" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1854">
-      <c r="A1854" s="1" t="n">
-        <v>1852</v>
-      </c>
-      <c r="B1854" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1854" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1854" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1854" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1855">
-      <c r="A1855" s="1" t="n">
-        <v>1853</v>
-      </c>
-      <c r="B1855" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1855" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1855" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1855" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1856">
-      <c r="A1856" s="1" t="n">
-        <v>1854</v>
-      </c>
-      <c r="B1856" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1856" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1856" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1856" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1857">
-      <c r="A1857" s="1" t="n">
-        <v>1855</v>
-      </c>
-      <c r="B1857" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1857" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1857" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1857" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1858">
-      <c r="A1858" s="1" t="n">
-        <v>1856</v>
-      </c>
-      <c r="B1858" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1858" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1858" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1858" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1859">
-      <c r="A1859" s="1" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B1859" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1859" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1859" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1859" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" s="1" t="n">
-        <v>1858</v>
-      </c>
-      <c r="B1860" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1860" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1860" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1860" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" s="1" t="n">
-        <v>1859</v>
-      </c>
-      <c r="B1861" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1861" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1861" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1861" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1862">
-      <c r="A1862" s="1" t="n">
-        <v>1860</v>
-      </c>
-      <c r="B1862" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1862" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1862" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1862" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1863">
-      <c r="A1863" s="1" t="n">
-        <v>1861</v>
-      </c>
-      <c r="B1863" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1863" t="n">
-        <v>133</v>
-      </c>
-      <c r="D1863" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1863" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1864">
-      <c r="A1864" s="1" t="n">
-        <v>1862</v>
-      </c>
-      <c r="B1864" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1864" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1864" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1864" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1865">
-      <c r="A1865" s="1" t="n">
-        <v>1863</v>
-      </c>
-      <c r="B1865" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1865" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1865" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1865" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1866">
-      <c r="A1866" s="1" t="n">
-        <v>1864</v>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1866" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1866" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1866" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" s="1" t="n">
-        <v>1865</v>
-      </c>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1867" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1867" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1867" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" s="1" t="n">
-        <v>1866</v>
-      </c>
-      <c r="B1868" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1868" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1868" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1868" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" s="1" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B1869" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1869" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1869" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1869" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" s="1" t="n">
-        <v>1868</v>
-      </c>
-      <c r="B1870" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1870" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1870" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1870" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" s="1" t="n">
-        <v>1869</v>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1871" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1871" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1871" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" s="1" t="n">
-        <v>1870</v>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1872" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1872" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1872" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" s="1" t="n">
-        <v>1871</v>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1873" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1873" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1873" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" s="1" t="n">
-        <v>1872</v>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1874" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1874" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1874" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" s="1" t="n">
-        <v>1873</v>
-      </c>
-      <c r="B1875" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1875" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1875" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1875" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1876">
-      <c r="A1876" s="1" t="n">
-        <v>1874</v>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1876" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1876" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1876" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" s="1" t="n">
-        <v>1875</v>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1877" t="n">
-        <v>134</v>
-      </c>
-      <c r="D1877" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1877" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" s="1" t="n">
-        <v>1876</v>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1878" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1878" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1878" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" s="1" t="n">
-        <v>1877</v>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1879" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1879" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1879" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" s="1" t="n">
-        <v>1878</v>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1880" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1880" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1880" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" s="1" t="n">
-        <v>1879</v>
-      </c>
-      <c r="B1881" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1881" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1881" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1881" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1882">
-      <c r="A1882" s="1" t="n">
-        <v>1880</v>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1882" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1882" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1882" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" s="1" t="n">
-        <v>1881</v>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1883" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1883" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1883" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" s="1" t="n">
-        <v>1882</v>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1884" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1884" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1884" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" s="1" t="n">
-        <v>1883</v>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1885" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1885" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1885" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" s="1" t="n">
-        <v>1884</v>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1886" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1886" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1886" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" s="1" t="n">
-        <v>1885</v>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1887" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1887" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1887" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" s="1" t="n">
-        <v>1886</v>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1888" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1888" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1888" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" s="1" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1889" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1889" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1889" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" s="1" t="n">
-        <v>1888</v>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1890" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1890" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1890" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" s="1" t="n">
-        <v>1889</v>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1891" t="n">
-        <v>135</v>
-      </c>
-      <c r="D1891" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1891" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" s="1" t="n">
-        <v>1890</v>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1892" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1892" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1892" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" s="1" t="n">
-        <v>1891</v>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1893" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1893" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1893" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" s="1" t="n">
-        <v>1892</v>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1894" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1894" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1894" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" s="1" t="n">
-        <v>1893</v>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1895" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1895" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1895" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" s="1" t="n">
-        <v>1894</v>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1896" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1896" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1896" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" s="1" t="n">
-        <v>1895</v>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1897" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1897" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1897" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" s="1" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1898" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1898" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1898" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" s="1" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1899" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1899" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1899" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" s="1" t="n">
-        <v>1898</v>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1900" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1900" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1900" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" s="1" t="n">
-        <v>1899</v>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1901" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1901" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1901" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" s="1" t="n">
-        <v>1900</v>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1902" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1902" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1902" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" s="1" t="n">
-        <v>1901</v>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1903" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1903" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1903" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" s="1" t="n">
-        <v>1902</v>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1904" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1904" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1904" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" s="1" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B1905" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1905" t="n">
-        <v>136</v>
-      </c>
-      <c r="D1905" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1905" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" s="1" t="n">
-        <v>1904</v>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1906" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1906" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1906" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" s="1" t="n">
-        <v>1905</v>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1907" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1907" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1907" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" s="1" t="n">
-        <v>1906</v>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1908" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1908" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1908" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" s="1" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1909" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1909" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1909" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" s="1" t="n">
-        <v>1908</v>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1910" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1910" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1910" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" s="1" t="n">
-        <v>1909</v>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1911" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1911" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1911" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" s="1" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1912" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1912" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1912" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" s="1" t="n">
-        <v>1911</v>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1913" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1913" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1913" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" s="1" t="n">
-        <v>1912</v>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1914" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1914" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1914" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" s="1" t="n">
-        <v>1913</v>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1915" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1915" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1915" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" s="1" t="n">
-        <v>1914</v>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1916" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1916" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1916" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" s="1" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1917" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1917" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1917" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" s="1" t="n">
-        <v>1916</v>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1918" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1918" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1918" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" s="1" t="n">
-        <v>1917</v>
-      </c>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1919" t="n">
-        <v>137</v>
-      </c>
-      <c r="D1919" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1919" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" s="1" t="n">
-        <v>1918</v>
-      </c>
-      <c r="B1920" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1920" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1920" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1920" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" s="1" t="n">
-        <v>1919</v>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1921" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1921" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1921" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1922" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1922" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1922" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" s="1" t="n">
-        <v>1921</v>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1923" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1923" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1923" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" s="1" t="n">
-        <v>1922</v>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1924" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1924" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1924" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" s="1" t="n">
-        <v>1923</v>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1925" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1925" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1925" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" s="1" t="n">
-        <v>1924</v>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1926" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1926" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1926" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" s="1" t="n">
-        <v>1925</v>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1927" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1927" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1927" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" s="1" t="n">
-        <v>1926</v>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1928" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1928" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1928" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" s="1" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1929" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1929" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1929" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" s="1" t="n">
-        <v>1928</v>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1930" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1930" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1930" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" s="1" t="n">
-        <v>1929</v>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1931" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1931" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1931" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" s="1" t="n">
-        <v>1930</v>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1932" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1932" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1932" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" s="1" t="n">
-        <v>1931</v>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1933" t="n">
-        <v>138</v>
-      </c>
-      <c r="D1933" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1933" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" s="1" t="n">
-        <v>1932</v>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1934" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1934" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1934" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" s="1" t="n">
-        <v>1933</v>
-      </c>
-      <c r="B1935" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1935" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1935" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1935" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" s="1" t="n">
-        <v>1934</v>
-      </c>
-      <c r="B1936" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1936" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1936" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1936" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" s="1" t="n">
-        <v>1935</v>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1937" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1937" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1937" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" s="1" t="n">
-        <v>1936</v>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1938" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1938" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1938" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" s="1" t="n">
-        <v>1937</v>
-      </c>
-      <c r="B1939" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1939" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1939" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1939" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" s="1" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B1940" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1940" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1940" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1940" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" s="1" t="n">
-        <v>1939</v>
-      </c>
-      <c r="B1941" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1941" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1941" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1941" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1942">
-      <c r="A1942" s="1" t="n">
-        <v>1940</v>
-      </c>
-      <c r="B1942" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1942" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1942" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1942" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1943">
-      <c r="A1943" s="1" t="n">
-        <v>1941</v>
-      </c>
-      <c r="B1943" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1943" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1943" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1943" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1944">
-      <c r="A1944" s="1" t="n">
-        <v>1942</v>
-      </c>
-      <c r="B1944" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1944" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1944" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1944" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" s="1" t="n">
-        <v>1943</v>
-      </c>
-      <c r="B1945" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1945" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1945" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1945" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1946">
-      <c r="A1946" s="1" t="n">
-        <v>1944</v>
-      </c>
-      <c r="B1946" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1946" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1946" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1946" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1947">
-      <c r="A1947" s="1" t="n">
-        <v>1945</v>
-      </c>
-      <c r="B1947" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1947" t="n">
-        <v>139</v>
-      </c>
-      <c r="D1947" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1947" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1948">
-      <c r="A1948" s="1" t="n">
-        <v>1946</v>
-      </c>
-      <c r="B1948" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1948" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1948" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1948" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1949">
-      <c r="A1949" s="1" t="n">
-        <v>1947</v>
-      </c>
-      <c r="B1949" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1949" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1949" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1949" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" s="1" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B1950" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1950" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1950" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1950" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" s="1" t="n">
-        <v>1949</v>
-      </c>
-      <c r="B1951" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1951" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1951" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1951" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" s="1" t="n">
-        <v>1950</v>
-      </c>
-      <c r="B1952" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1952" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1952" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1952" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1953">
-      <c r="A1953" s="1" t="n">
-        <v>1951</v>
-      </c>
-      <c r="B1953" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1953" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1953" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1953" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" s="1" t="n">
-        <v>1952</v>
-      </c>
-      <c r="B1954" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1954" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1954" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1954" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1955">
-      <c r="A1955" s="1" t="n">
-        <v>1953</v>
-      </c>
-      <c r="B1955" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1955" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1955" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1955" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1956">
-      <c r="A1956" s="1" t="n">
-        <v>1954</v>
-      </c>
-      <c r="B1956" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1956" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1956" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1956" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1957">
-      <c r="A1957" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="B1957" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1957" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1957" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1957" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1958">
-      <c r="A1958" s="1" t="n">
-        <v>1956</v>
-      </c>
-      <c r="B1958" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1958" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1958" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1958" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1959">
-      <c r="A1959" s="1" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B1959" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1959" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1959" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1959" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1960">
-      <c r="A1960" s="1" t="n">
-        <v>1958</v>
-      </c>
-      <c r="B1960" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1960" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1960" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1960" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1961">
-      <c r="A1961" s="1" t="n">
-        <v>1959</v>
-      </c>
-      <c r="B1961" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1961" t="n">
-        <v>140</v>
-      </c>
-      <c r="D1961" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1961" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="B1962" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1962" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1962" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1962" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" s="1" t="n">
-        <v>1961</v>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1963" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1963" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1963" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" s="1" t="n">
-        <v>1962</v>
-      </c>
-      <c r="B1964" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1964" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1964" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1964" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" s="1" t="n">
-        <v>1963</v>
-      </c>
-      <c r="B1965" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1965" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1965" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1965" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" s="1" t="n">
-        <v>1964</v>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1966" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1966" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1966" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" s="1" t="n">
-        <v>1965</v>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1967" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1967" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1967" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" s="1" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1968" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1968" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1968" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" s="1" t="n">
-        <v>1967</v>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1969" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1969" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1969" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" s="1" t="n">
-        <v>1968</v>
-      </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1970" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1970" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1970" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" s="1" t="n">
-        <v>1969</v>
-      </c>
-      <c r="B1971" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1971" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1971" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1971" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1972">
-      <c r="A1972" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1972" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1972" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1972" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1973" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1973" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1973" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1974" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1974" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1974" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1975" t="n">
-        <v>141</v>
-      </c>
-      <c r="D1975" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1975" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1976" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1976" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1976" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1977" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1977" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1977" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="B1978" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1978" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1978" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1978" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="B1979" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1979" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1979" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1979" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1980" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1980" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1980" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1981" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1981" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1981" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="B1982" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1982" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1982" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1982" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1983" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1983" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1983" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1984" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1984" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1984" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1985" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1985" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1985" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C1986" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1986" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1986" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C1987" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1987" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1987" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C1988" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1988" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1988" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C1989" t="n">
-        <v>142</v>
-      </c>
-      <c r="D1989" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1989" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C1990" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1990" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1990" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C1991" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1991" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1991" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1992" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1992" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1992" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C1993" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1993" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1993" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C1994" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1994" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1994" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C1995" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1995" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1995" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C1996" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1996" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1996" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C1997" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1997" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1997" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C1998" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1998" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1998" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C1999" t="n">
-        <v>143</v>
-      </c>
-      <c r="D1999" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1999" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2000" t="n">
-        <v>143</v>
-      </c>
-      <c r="D2000" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2000" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2001" t="n">
-        <v>143</v>
-      </c>
-      <c r="D2001" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2001" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2002" t="n">
-        <v>143</v>
-      </c>
-      <c r="D2002" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2002" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2003" t="n">
-        <v>143</v>
-      </c>
-      <c r="D2003" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2003" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2004" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2004" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2004" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2005" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2005" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2005" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2006" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2006" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2006" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2007" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2007" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2007" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2008" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2008" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2008" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2009" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2009" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2009" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2010" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2010" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2010" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2011" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2011" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2011" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2012" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2012" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2012" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2013" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2013" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2013" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2014" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2014" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2014" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2015" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2015" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2015" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2016" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2016" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2016" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2017" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2017" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2017" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2018" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2018" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2018" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2019" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2019" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2019" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2020" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2020" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2020" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2021" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2021" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2021" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2022" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2022" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2022" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2023" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2023" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2023" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2024" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2024" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2024" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2025" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2025" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2025" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2026" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2026" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2026" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" s="1" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2027" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2027" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2027" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" s="1" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2028" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2028" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2028" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" s="1" t="n">
-        <v>2027</v>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2029" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2029" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2029" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" s="1" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2030" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2030" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2030" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" s="1" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2031" t="n">
-        <v>145</v>
-      </c>
-      <c r="D2031" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2031" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2032" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2032" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2032" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" s="1" t="n">
-        <v>2031</v>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2033" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2033" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2033" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" s="1" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2034" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2034" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2034" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" s="1" t="n">
-        <v>2033</v>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2035" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2035" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2035" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" s="1" t="n">
-        <v>2034</v>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2036" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2036" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2036" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" s="1" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2037" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2037" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2037" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" s="1" t="n">
-        <v>2036</v>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2038" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2038" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2038" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" s="1" t="n">
-        <v>2037</v>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2039" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2039" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2039" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" s="1" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2040" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2040" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2040" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" s="1" t="n">
-        <v>2039</v>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2041" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2041" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2041" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" s="1" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2042" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2042" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2042" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" s="1" t="n">
-        <v>2041</v>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2043" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2043" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2043" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" s="1" t="n">
-        <v>2042</v>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2044" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2044" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2044" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" s="1" t="n">
-        <v>2043</v>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2045" t="n">
-        <v>146</v>
-      </c>
-      <c r="D2045" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2045" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" s="1" t="n">
-        <v>2044</v>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2046" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2046" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2046" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" s="1" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2047" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2047" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2047" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" s="1" t="n">
-        <v>2046</v>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2048" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2048" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2048" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" s="1" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2049" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2049" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2049" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2050" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2050" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2050" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" s="1" t="n">
-        <v>2049</v>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2051" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2051" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2051" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" s="1" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2052" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2052" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2052" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" s="1" t="n">
-        <v>2051</v>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2053" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2053" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2053" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" s="1" t="n">
-        <v>2052</v>
-      </c>
-      <c r="B2054" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2054" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2054" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2054" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" s="1" t="n">
-        <v>2053</v>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2055" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2055" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2055" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" s="1" t="n">
-        <v>2054</v>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2056" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2056" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2056" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" s="1" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2057" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2057" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2057" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" s="1" t="n">
-        <v>2056</v>
-      </c>
-      <c r="B2058" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2058" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2058" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2058" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2059">
-      <c r="A2059" s="1" t="n">
-        <v>2057</v>
-      </c>
-      <c r="B2059" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2059" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2059" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2059" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2060">
-      <c r="A2060" s="1" t="n">
-        <v>2058</v>
-      </c>
-      <c r="B2060" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2060" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2060" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2060" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" s="1" t="n">
-        <v>2059</v>
-      </c>
-      <c r="B2061" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2061" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2061" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2061" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2062">
-      <c r="A2062" s="1" t="n">
-        <v>2060</v>
-      </c>
-      <c r="B2062" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2062" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2062" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2062" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2063">
-      <c r="A2063" s="1" t="n">
-        <v>2061</v>
-      </c>
-      <c r="B2063" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2063" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2063" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2063" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2064">
-      <c r="A2064" s="1" t="n">
-        <v>2062</v>
-      </c>
-      <c r="B2064" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2064" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2064" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2064" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2065">
-      <c r="A2065" s="1" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B2065" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2065" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2065" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2065" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2066">
-      <c r="A2066" s="1" t="n">
-        <v>2064</v>
-      </c>
-      <c r="B2066" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2066" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2066" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2066" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2067">
-      <c r="A2067" s="1" t="n">
-        <v>2065</v>
-      </c>
-      <c r="B2067" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2067" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2067" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2067" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2068">
-      <c r="A2068" s="1" t="n">
-        <v>2066</v>
-      </c>
-      <c r="B2068" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2068" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2068" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2068" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2069">
-      <c r="A2069" s="1" t="n">
-        <v>2067</v>
-      </c>
-      <c r="B2069" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2069" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2069" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2069" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2070">
-      <c r="A2070" s="1" t="n">
-        <v>2068</v>
-      </c>
-      <c r="B2070" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2070" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2070" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2070" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2071">
-      <c r="A2071" s="1" t="n">
-        <v>2069</v>
-      </c>
-      <c r="B2071" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2071" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2071" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2071" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2072">
-      <c r="A2072" s="1" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B2072" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2072" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2072" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2072" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2073">
-      <c r="A2073" s="1" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2073" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2073" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2073" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2074">
-      <c r="A2074" s="1" t="n">
-        <v>2072</v>
-      </c>
-      <c r="B2074" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2074" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2074" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2074" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" s="1" t="n">
-        <v>2073</v>
-      </c>
-      <c r="B2075" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2075" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2075" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2075" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" s="1" t="n">
-        <v>2074</v>
-      </c>
-      <c r="B2076" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2076" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2076" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2076" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" s="1" t="n">
-        <v>2075</v>
-      </c>
-      <c r="B2077" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2077" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2077" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2077" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" s="1" t="n">
-        <v>2076</v>
-      </c>
-      <c r="B2078" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2078" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2078" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2078" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" s="1" t="n">
-        <v>2077</v>
-      </c>
-      <c r="B2079" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2079" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2079" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2079" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" s="1" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B2080" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2080" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2080" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2080" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" s="1" t="n">
-        <v>2079</v>
-      </c>
-      <c r="B2081" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2081" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2081" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2081" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" s="1" t="n">
-        <v>2080</v>
-      </c>
-      <c r="B2082" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2082" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2082" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2082" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" s="1" t="n">
-        <v>2081</v>
-      </c>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2083" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2083" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2083" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" s="1" t="n">
-        <v>2082</v>
-      </c>
-      <c r="B2084" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2084" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2084" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2084" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" s="1" t="n">
-        <v>2083</v>
-      </c>
-      <c r="B2085" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2085" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2085" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2085" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" s="1" t="n">
-        <v>2084</v>
-      </c>
-      <c r="B2086" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2086" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2086" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2086" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" s="1" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B2087" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2087" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2087" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2087" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" s="1" t="n">
-        <v>2086</v>
-      </c>
-      <c r="B2088" t="inlineStr">
-        <is>
-          <t>Entero</t>
-        </is>
-      </c>
-      <c r="C2088" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2088" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2088" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" s="1" t="n">
-        <v>2087</v>
-      </c>
-      <c r="B2089" t="inlineStr">
-        <is>
-          <t>Medio Pollo</t>
-        </is>
-      </c>
-      <c r="C2089" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2089" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2089" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" s="1" t="n">
-        <v>2088</v>
-      </c>
-      <c r="B2090" t="inlineStr">
-        <is>
-          <t>Medio Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2090" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2090" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2090" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" s="1" t="n">
-        <v>2089</v>
-      </c>
-      <c r="B2091" t="inlineStr">
-        <is>
-          <t>Medio Pollo Inferior</t>
-        </is>
-      </c>
-      <c r="C2091" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2091" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2091" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" s="1" t="n">
-        <v>2090</v>
-      </c>
-      <c r="B2092" t="inlineStr">
-        <is>
-          <t>Cuarto de Pollo Superior</t>
-        </is>
-      </c>
-      <c r="C2092" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2092" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2092" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" s="1" t="n">
-        <v>2091</v>
-      </c>
-      <c r="B2093" t="inlineStr">
-        <is>
-          <t>Muslo Entero</t>
-        </is>
-      </c>
-      <c r="C2093" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2093" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2093" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" s="1" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B2094" t="inlineStr">
-        <is>
-          <t>Pechuga Completa</t>
-        </is>
-      </c>
-      <c r="C2094" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2094" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2094" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" s="1" t="n">
-        <v>2093</v>
-      </c>
-      <c r="B2095" t="inlineStr">
-        <is>
-          <t>Ala Completa</t>
-        </is>
-      </c>
-      <c r="C2095" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2095" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2095" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" s="1" t="n">
-        <v>2094</v>
-      </c>
-      <c r="B2096" t="inlineStr">
-        <is>
-          <t>Media Pechuga</t>
-        </is>
-      </c>
-      <c r="C2096" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2096" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2096" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" s="1" t="n">
-        <v>2095</v>
-      </c>
-      <c r="B2097" t="inlineStr">
-        <is>
-          <t>Blanqueta</t>
-        </is>
-      </c>
-      <c r="C2097" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2097" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2097" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" s="1" t="n">
-        <v>2096</v>
-      </c>
-      <c r="B2098" t="inlineStr">
-        <is>
-          <t>Alón</t>
-        </is>
-      </c>
-      <c r="C2098" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2098" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2098" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" s="1" t="n">
-        <v>2097</v>
-      </c>
-      <c r="B2099" t="inlineStr">
-        <is>
-          <t>Punta</t>
-        </is>
-      </c>
-      <c r="C2099" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2099" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2099" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2100">
-      <c r="A2100" s="1" t="n">
-        <v>2098</v>
-      </c>
-      <c r="B2100" t="inlineStr">
-        <is>
-          <t>Jamoncito</t>
-        </is>
-      </c>
-      <c r="C2100" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2100" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2101">
-      <c r="A2101" s="1" t="n">
-        <v>2099</v>
-      </c>
-      <c r="B2101" t="inlineStr">
-        <is>
-          <t>Medio Muslo</t>
-        </is>
-      </c>
-      <c r="C2101" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2101" t="n">
         <v>0</v>
       </c>
     </row>
